--- a/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/QACM_B_ScientificExplanations.xlsx
+++ b/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/QACM_B_ScientificExplanations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blaz\Fakultet\DigiLing1.2\obdelava_naravnega_jezika\projekt\ul-fri-nlp-course-project-parlay\Assessment_quality_llm_outcome\PromptOutcomes_EvaluationMetrics\[ChatGPT]Outcome Quality Assessment Composed Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meta/Documents/ul-fri-nlp-course-project-parlay/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB643217-0041-4AA5-9448-1188E58681EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60A219-D5D9-BB49-934A-C2062B0BF22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -185,37 +182,37 @@
 </t>
   </si>
   <si>
-    <t>EXAMPLE 11</t>
-  </si>
-  <si>
-    <t>EXAMPLE 12</t>
-  </si>
-  <si>
-    <t>EXAMPLE 13</t>
-  </si>
-  <si>
-    <t>EXAMPLE 14</t>
-  </si>
-  <si>
-    <t>EXAMPLE 15</t>
-  </si>
-  <si>
-    <t>EXAMPLE 16</t>
-  </si>
-  <si>
-    <t>EXAMPLE 17</t>
-  </si>
-  <si>
-    <t>EXAMPLE 18</t>
-  </si>
-  <si>
-    <t>EXAMPLE 19</t>
-  </si>
-  <si>
-    <t>EXAMPLE 20</t>
-  </si>
-  <si>
-    <t>ChatGPT: Scientific Explanations</t>
+    <t>Gemini: Scientific Explanations</t>
+  </si>
+  <si>
+    <t>EXAMPLE 1</t>
+  </si>
+  <si>
+    <t>EXAMPLE 2</t>
+  </si>
+  <si>
+    <t>EXAMPLE 3</t>
+  </si>
+  <si>
+    <t>EXAMPLE 4</t>
+  </si>
+  <si>
+    <t>EXAMPLE 5</t>
+  </si>
+  <si>
+    <t>EXAMPLE 6</t>
+  </si>
+  <si>
+    <t>EXAMPLE 7</t>
+  </si>
+  <si>
+    <t>EXAMPLE 8</t>
+  </si>
+  <si>
+    <t>EXAMPLE 9</t>
+  </si>
+  <si>
+    <t>EXAMPLE 10</t>
   </si>
 </sst>
 </file>
@@ -829,6 +826,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,15 +845,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,24 +1065,24 @@
   </sheetPr>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="92" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1095,17 +1092,17 @@
       <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>17</v>
       </c>
@@ -1113,16 +1110,16 @@
         <v>46</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -1132,10 +1129,10 @@
       <c r="C3" s="40">
         <v>2.5</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1145,12 +1142,12 @@
       <c r="C4" s="4">
         <v>0.83</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1160,12 +1157,12 @@
       <c r="C5" s="4">
         <v>0.83</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
@@ -1175,12 +1172,12 @@
       <c r="C6" s="9">
         <v>0.83</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
@@ -1190,10 +1187,10 @@
       <c r="C7" s="40">
         <v>2.5</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1203,12 +1200,12 @@
       <c r="C8" s="4">
         <v>0.5</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="63"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1218,12 +1215,12 @@
       <c r="C9" s="4">
         <v>0.5</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1233,12 +1230,12 @@
       <c r="C10" s="4">
         <v>0.5</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1248,12 +1245,12 @@
       <c r="C11" s="4">
         <v>0.5</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="63"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1263,12 +1260,12 @@
       <c r="C12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40" t="s">
         <v>21</v>
       </c>
@@ -1278,10 +1275,10 @@
       <c r="C13" s="40">
         <v>5</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1291,12 +1288,12 @@
       <c r="C14" s="4">
         <v>1.5</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="63"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1306,12 +1303,12 @@
       <c r="C15" s="4">
         <v>1.5</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="63"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1321,12 +1318,12 @@
       <c r="C16" s="4">
         <v>1.5</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="63"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
@@ -1336,13 +1333,13 @@
       <c r="C17" s="9">
         <v>0.5</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1350,42 +1347,42 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="44" t="s">
         <v>33</v>
       </c>
@@ -1402,9 +1399,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>4</v>
@@ -1415,39 +1412,39 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="22">
         <v>0.83</v>
       </c>
       <c r="E27" s="15">
         <f>C27 * D27</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="23">
         <v>0.84</v>
       </c>
       <c r="E28" s="12">
         <f>C28 * D28</f>
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
@@ -1463,7 +1460,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
       <c r="B30" s="19" t="s">
         <v>8</v>
@@ -1474,7 +1471,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="14" t="s">
         <v>9</v>
@@ -1490,23 +1487,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="23">
         <v>0.5</v>
       </c>
       <c r="E32" s="12">
         <f>C32 * D31</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="17" t="s">
         <v>11</v>
@@ -1522,7 +1519,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="11" t="s">
         <v>12</v>
@@ -1538,7 +1535,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="21" t="s">
         <v>13</v>
@@ -1554,7 +1551,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="19" t="s">
         <v>21</v>
@@ -1565,23 +1562,23 @@
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="22">
         <v>1.5</v>
       </c>
       <c r="E37" s="15">
         <f>C37 * D37</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="11" t="s">
         <v>22</v>
@@ -1597,23 +1594,23 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="25">
         <v>1.5</v>
       </c>
       <c r="E39" s="18">
         <f>C39 * D37</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="11" t="s">
         <v>27</v>
@@ -1629,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="31" t="s">
         <v>14</v>
@@ -1640,17 +1637,17 @@
       <c r="D41" s="54"/>
       <c r="E41" s="30">
         <f>SUM(E27,E28,E29,E31,IMPRODUCt,E33,E34,E35,E37,E38,E39,E40)</f>
-        <v>42.66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
         <v>33</v>
       </c>
@@ -1667,9 +1664,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>4</v>
@@ -1680,7 +1677,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="13" t="s">
         <v>5</v>
@@ -1696,23 +1693,23 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="23">
         <v>0.84</v>
       </c>
       <c r="E46" s="12">
         <f>C46 * D46</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="20" t="s">
         <v>6</v>
@@ -1728,7 +1725,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
       <c r="B48" s="19" t="s">
         <v>8</v>
@@ -1739,23 +1736,23 @@
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
       <c r="B49" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="22">
         <v>0.5</v>
       </c>
       <c r="E49" s="15">
         <f>C49 * D49</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
       <c r="B50" s="11" t="s">
         <v>10</v>
@@ -1771,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="51"/>
       <c r="B51" s="17" t="s">
         <v>11</v>
@@ -1787,23 +1784,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
       <c r="B52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="23">
         <v>0.5</v>
       </c>
       <c r="E52" s="12">
         <f>C52 * D49</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="21" t="s">
         <v>13</v>
@@ -1819,7 +1816,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="19" t="s">
         <v>21</v>
@@ -1830,7 +1827,7 @@
       <c r="D54" s="34"/>
       <c r="E54" s="35"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
       <c r="B55" s="14" t="s">
         <v>25</v>
@@ -1846,39 +1843,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
       <c r="B56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="23">
         <v>1.5</v>
       </c>
       <c r="E56" s="12">
         <f>C56 * D55</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" s="25">
         <v>1.5</v>
       </c>
       <c r="E57" s="18">
         <f>C57 * D55</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
       <c r="B58" s="11" t="s">
         <v>27</v>
@@ -1894,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52"/>
       <c r="B59" s="31" t="s">
         <v>14</v>
@@ -1905,10 +1902,10 @@
       <c r="D59" s="54"/>
       <c r="E59" s="30">
         <f>SUM(E45,E46,E47,E49,IMPRODUCt,E51,E52,E53,E55,E56,E57,E58)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="44" t="s">
         <v>33</v>
       </c>
@@ -1925,9 +1922,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>4</v>
@@ -1938,23 +1935,23 @@
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
       <c r="B63" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="22">
         <v>0.83</v>
       </c>
       <c r="E63" s="15">
         <f>C63 * D63</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="16" t="s">
         <v>18</v>
@@ -1970,23 +1967,23 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="24">
         <v>0.83</v>
       </c>
       <c r="E65" s="9">
         <f>C65 * D63</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
       <c r="B66" s="19" t="s">
         <v>8</v>
@@ -1997,7 +1994,7 @@
       <c r="D66" s="32"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="51"/>
       <c r="B67" s="14" t="s">
         <v>9</v>
@@ -2013,23 +2010,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="51"/>
       <c r="B68" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="23">
         <v>0.5</v>
       </c>
       <c r="E68" s="12">
         <f>C68 * D67</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="51"/>
       <c r="B69" s="17" t="s">
         <v>11</v>
@@ -2045,23 +2042,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="51"/>
       <c r="B70" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="23">
         <v>0.5</v>
       </c>
       <c r="E70" s="12">
         <f>C70 * D67</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51"/>
       <c r="B71" s="21" t="s">
         <v>13</v>
@@ -2077,7 +2074,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="51"/>
       <c r="B72" s="19" t="s">
         <v>21</v>
@@ -2088,71 +2085,71 @@
       <c r="D72" s="34"/>
       <c r="E72" s="35"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="51"/>
       <c r="B73" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="22">
         <v>1.5</v>
       </c>
       <c r="E73" s="15">
         <f>C73 * D73</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="51"/>
       <c r="B74" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="23">
         <v>1.5</v>
       </c>
       <c r="E74" s="12">
         <f>C74 * D73</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="51"/>
       <c r="B75" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="25">
         <v>1.5</v>
       </c>
       <c r="E75" s="18">
         <f>C75 * D73</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="51"/>
       <c r="B76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="23">
         <v>0.5</v>
       </c>
       <c r="E76" s="12">
         <f>C76 * D76</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="52"/>
       <c r="B77" s="31" t="s">
         <v>14</v>
@@ -2163,10 +2160,10 @@
       <c r="D77" s="54"/>
       <c r="E77" s="30">
         <f>SUM(E63,E64,E65,E67,IMPRODUCt,E69,E70,E71,E73,E74,E75,E76)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="44" t="s">
         <v>33</v>
       </c>
@@ -2183,9 +2180,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>4</v>
@@ -2196,23 +2193,23 @@
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="51"/>
       <c r="B81" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="22">
         <v>0.83</v>
       </c>
       <c r="E81" s="15">
         <f>C81 * D81</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="51"/>
       <c r="B82" s="16" t="s">
         <v>18</v>
@@ -2228,7 +2225,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="51"/>
       <c r="B83" s="20" t="s">
         <v>6</v>
@@ -2244,7 +2241,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="51"/>
       <c r="B84" s="19" t="s">
         <v>8</v>
@@ -2255,23 +2252,23 @@
       <c r="D84" s="32"/>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="51"/>
       <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="22">
         <v>0.5</v>
       </c>
       <c r="E85" s="15">
         <f>C85 * D85</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="51"/>
       <c r="B86" s="11" t="s">
         <v>10</v>
@@ -2287,7 +2284,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="51"/>
       <c r="B87" s="17" t="s">
         <v>11</v>
@@ -2303,23 +2300,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="51"/>
       <c r="B88" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="23">
         <v>0.5</v>
       </c>
       <c r="E88" s="12">
         <f>C88 * D85</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="51"/>
       <c r="B89" s="21" t="s">
         <v>13</v>
@@ -2335,7 +2332,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="51"/>
       <c r="B90" s="19" t="s">
         <v>21</v>
@@ -2346,7 +2343,7 @@
       <c r="D90" s="34"/>
       <c r="E90" s="35"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="51"/>
       <c r="B91" s="14" t="s">
         <v>25</v>
@@ -2362,55 +2359,55 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="51"/>
       <c r="B92" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="23">
         <v>1.5</v>
       </c>
       <c r="E92" s="12">
         <f>C92 * D91</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="51"/>
       <c r="B93" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="25">
         <v>1.5</v>
       </c>
       <c r="E93" s="18">
         <f>C93 * D91</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="51"/>
       <c r="B94" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="23">
         <v>0.5</v>
       </c>
       <c r="E94" s="12">
         <f>C94 * D94</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="52"/>
       <c r="B95" s="31" t="s">
         <v>14</v>
@@ -2421,10 +2418,10 @@
       <c r="D95" s="54"/>
       <c r="E95" s="30">
         <f>SUM(E81,E82,E83,E85,IMPRODUCt,E87,E88,E89,E91,E92,E93,E94)</f>
-        <v>43.66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="44" t="s">
         <v>33</v>
       </c>
@@ -2441,9 +2438,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>4</v>
@@ -2454,23 +2451,23 @@
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="51"/>
       <c r="B99" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" s="22">
         <v>0.83</v>
       </c>
       <c r="E99" s="15">
         <f>C99 * D99</f>
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="51"/>
       <c r="B100" s="16" t="s">
         <v>18</v>
@@ -2486,7 +2483,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="51"/>
       <c r="B101" s="20" t="s">
         <v>6</v>
@@ -2502,7 +2499,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="51"/>
       <c r="B102" s="19" t="s">
         <v>8</v>
@@ -2513,7 +2510,7 @@
       <c r="D102" s="32"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="51"/>
       <c r="B103" s="14" t="s">
         <v>9</v>
@@ -2529,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="51"/>
       <c r="B104" s="11" t="s">
         <v>10</v>
@@ -2545,23 +2542,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="51"/>
       <c r="B105" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="25">
         <v>0.5</v>
       </c>
       <c r="E105" s="18">
         <f>C105 * D103</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="51"/>
       <c r="B106" s="11" t="s">
         <v>12</v>
@@ -2577,7 +2574,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="51"/>
       <c r="B107" s="21" t="s">
         <v>13</v>
@@ -2593,7 +2590,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="51"/>
       <c r="B108" s="19" t="s">
         <v>21</v>
@@ -2604,71 +2601,71 @@
       <c r="D108" s="34"/>
       <c r="E108" s="35"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="51"/>
       <c r="B109" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C109" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" s="22">
         <v>1.5</v>
       </c>
       <c r="E109" s="15">
         <f>C109 * D109</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="51"/>
       <c r="B110" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="23">
         <v>1.5</v>
       </c>
       <c r="E110" s="12">
         <f>C110 * D109</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="51"/>
       <c r="B111" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D111" s="25">
         <v>1.5</v>
       </c>
       <c r="E111" s="18">
         <f>C111 * D109</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="51"/>
       <c r="B112" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C112" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" s="23">
         <v>0.5</v>
       </c>
       <c r="E112" s="12">
         <f>C112 * D112</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
       <c r="B113" s="31" t="s">
         <v>14</v>
@@ -2679,10 +2676,10 @@
       <c r="D113" s="54"/>
       <c r="E113" s="30">
         <f>SUM(E99,E100,E101,E103,IMPRODUCt,E105,E106,E107,E109,E110,E111,E112)</f>
-        <v>39.17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="44" t="s">
         <v>33</v>
       </c>
@@ -2699,9 +2696,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>4</v>
@@ -2712,23 +2709,23 @@
       <c r="D116" s="11"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="51"/>
       <c r="B117" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" s="22">
         <v>0.83</v>
       </c>
       <c r="E117" s="15">
         <f>C117 * D117</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="51"/>
       <c r="B118" s="16" t="s">
         <v>18</v>
@@ -2744,7 +2741,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="51"/>
       <c r="B119" s="20" t="s">
         <v>6</v>
@@ -2760,7 +2757,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="51"/>
       <c r="B120" s="19" t="s">
         <v>8</v>
@@ -2771,23 +2768,23 @@
       <c r="D120" s="32"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="51"/>
       <c r="B121" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" s="22">
         <v>0.5</v>
       </c>
       <c r="E121" s="15">
         <f>C121 * D121</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="51"/>
       <c r="B122" s="11" t="s">
         <v>10</v>
@@ -2803,39 +2800,39 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="51"/>
       <c r="B123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D123" s="25">
         <v>0.5</v>
       </c>
       <c r="E123" s="18">
         <f>C123 * D121</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="51"/>
       <c r="B124" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" s="23">
         <v>0.5</v>
       </c>
       <c r="E124" s="12">
         <f>C124 * D121</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="51"/>
       <c r="B125" s="21" t="s">
         <v>13</v>
@@ -2851,7 +2848,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="51"/>
       <c r="B126" s="19" t="s">
         <v>21</v>
@@ -2862,7 +2859,7 @@
       <c r="D126" s="34"/>
       <c r="E126" s="35"/>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="51"/>
       <c r="B127" s="14" t="s">
         <v>25</v>
@@ -2878,39 +2875,39 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="51"/>
       <c r="B128" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" s="23">
         <v>1.5</v>
       </c>
       <c r="E128" s="12">
         <f>C128 * D127</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="51"/>
       <c r="B129" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C129" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" s="25">
         <v>1.5</v>
       </c>
       <c r="E129" s="18">
         <f>C129 * D127</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="51"/>
       <c r="B130" s="11" t="s">
         <v>27</v>
@@ -2926,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="52"/>
       <c r="B131" s="31" t="s">
         <v>14</v>
@@ -2937,10 +2934,10 @@
       <c r="D131" s="54"/>
       <c r="E131" s="30">
         <f>SUM(E117,E118,E119,E121,IMPRODUCt,E123,E124,E125,E127,E128,E129,E130)</f>
-        <v>40.659999999999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="44" t="s">
         <v>33</v>
       </c>
@@ -2957,9 +2954,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>4</v>
@@ -2970,7 +2967,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="51"/>
       <c r="B135" s="13" t="s">
         <v>5</v>
@@ -2986,39 +2983,39 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="51"/>
       <c r="B136" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C136" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D136" s="23">
         <v>0.84</v>
       </c>
       <c r="E136" s="12">
         <f>C136 * D136</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="51"/>
       <c r="B137" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="24">
         <v>0.83</v>
       </c>
       <c r="E137" s="9">
         <f>C137 * D135</f>
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="51"/>
       <c r="B138" s="19" t="s">
         <v>8</v>
@@ -3029,7 +3026,7 @@
       <c r="D138" s="32"/>
       <c r="E138" s="33"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="51"/>
       <c r="B139" s="14" t="s">
         <v>9</v>
@@ -3045,7 +3042,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="51"/>
       <c r="B140" s="11" t="s">
         <v>10</v>
@@ -3061,23 +3058,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="51"/>
       <c r="B141" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" s="25">
         <v>0.5</v>
       </c>
       <c r="E141" s="18">
         <f>C141 * D139</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="51"/>
       <c r="B142" s="11" t="s">
         <v>12</v>
@@ -3093,7 +3090,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="51"/>
       <c r="B143" s="21" t="s">
         <v>13</v>
@@ -3109,7 +3106,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="51"/>
       <c r="B144" s="19" t="s">
         <v>21</v>
@@ -3120,71 +3117,71 @@
       <c r="D144" s="34"/>
       <c r="E144" s="35"/>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="51"/>
       <c r="B145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145" s="22">
         <v>1.5</v>
       </c>
       <c r="E145" s="15">
         <f>C145 * D145</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="51"/>
       <c r="B146" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146" s="23">
         <v>1.5</v>
       </c>
       <c r="E146" s="12">
         <f>C146 * D145</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="51"/>
       <c r="B147" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" s="25">
         <v>1.5</v>
       </c>
       <c r="E147" s="18">
         <f>C147 * D145</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="51"/>
       <c r="B148" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C148" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" s="23">
         <v>0.5</v>
       </c>
       <c r="E148" s="12">
         <f>C148 * D148</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="52"/>
       <c r="B149" s="31" t="s">
         <v>14</v>
@@ -3195,10 +3192,10 @@
       <c r="D149" s="54"/>
       <c r="E149" s="30">
         <f>SUM(E135,E136,E137,E139,IMPRODUCt,E141,E142,E143,E145,E146,E147,E148)</f>
-        <v>44.17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="44" t="s">
         <v>33</v>
       </c>
@@ -3215,9 +3212,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>4</v>
@@ -3228,23 +3225,23 @@
       <c r="D152" s="11"/>
       <c r="E152" s="12"/>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="51"/>
       <c r="B153" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D153" s="22">
         <v>0.83</v>
       </c>
       <c r="E153" s="15">
         <f>C153 * D153</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.4899999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="51"/>
       <c r="B154" s="16" t="s">
         <v>18</v>
@@ -3260,7 +3257,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="51"/>
       <c r="B155" s="20" t="s">
         <v>6</v>
@@ -3276,7 +3273,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="51"/>
       <c r="B156" s="19" t="s">
         <v>8</v>
@@ -3287,23 +3284,23 @@
       <c r="D156" s="32"/>
       <c r="E156" s="33"/>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="51"/>
       <c r="B157" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D157" s="22">
         <v>0.5</v>
       </c>
       <c r="E157" s="15">
         <f>C157 * D157</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="51"/>
       <c r="B158" s="11" t="s">
         <v>10</v>
@@ -3319,23 +3316,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="51"/>
       <c r="B159" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" s="25">
         <v>0.5</v>
       </c>
       <c r="E159" s="18">
         <f>C159 * D157</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="51"/>
       <c r="B160" s="11" t="s">
         <v>12</v>
@@ -3351,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="51"/>
       <c r="B161" s="21" t="s">
         <v>13</v>
@@ -3367,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="51"/>
       <c r="B162" s="19" t="s">
         <v>21</v>
@@ -3378,71 +3375,71 @@
       <c r="D162" s="34"/>
       <c r="E162" s="35"/>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="51"/>
       <c r="B163" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C163" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" s="22">
         <v>1.5</v>
       </c>
       <c r="E163" s="15">
         <f>C163 * D163</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="51"/>
       <c r="B164" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C164" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164" s="23">
         <v>1.5</v>
       </c>
       <c r="E164" s="12">
         <f>C164 * D163</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="51"/>
       <c r="B165" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C165" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" s="25">
         <v>1.5</v>
       </c>
       <c r="E165" s="18">
         <f>C165 * D163</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="51"/>
       <c r="B166" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C166" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166" s="23">
         <v>0.5</v>
       </c>
       <c r="E166" s="12">
         <f>C166 * D166</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
       <c r="B167" s="31" t="s">
         <v>14</v>
@@ -3453,10 +3450,10 @@
       <c r="D167" s="54"/>
       <c r="E167" s="30">
         <f>SUM(E153,E154,E155,E157,IMPRODUCt,E159,E160,E161,E163,E164,E165,E166)</f>
-        <v>42.67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="44" t="s">
         <v>33</v>
       </c>
@@ -3473,9 +3470,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A170" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>4</v>
@@ -3486,23 +3483,23 @@
       <c r="D170" s="11"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="51"/>
       <c r="B171" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C171" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D171" s="22">
         <v>0.83</v>
       </c>
       <c r="E171" s="15">
         <f>C171 * D171</f>
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="51"/>
       <c r="B172" s="16" t="s">
         <v>18</v>
@@ -3518,23 +3515,23 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="51"/>
       <c r="B173" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173" s="24">
         <v>0.83</v>
       </c>
       <c r="E173" s="9">
         <f>C173 * D171</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="51"/>
       <c r="B174" s="19" t="s">
         <v>8</v>
@@ -3545,23 +3542,23 @@
       <c r="D174" s="32"/>
       <c r="E174" s="33"/>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="51"/>
       <c r="B175" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C175" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D175" s="22">
         <v>0.5</v>
       </c>
       <c r="E175" s="15">
         <f>C175 * D175</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="51"/>
       <c r="B176" s="11" t="s">
         <v>10</v>
@@ -3577,7 +3574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="51"/>
       <c r="B177" s="17" t="s">
         <v>11</v>
@@ -3593,23 +3590,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="51"/>
       <c r="B178" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" s="23">
         <v>0.5</v>
       </c>
       <c r="E178" s="12">
         <f>C178 * D175</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="51"/>
       <c r="B179" s="21" t="s">
         <v>13</v>
@@ -3625,7 +3622,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A180" s="51"/>
       <c r="B180" s="19" t="s">
         <v>21</v>
@@ -3636,55 +3633,55 @@
       <c r="D180" s="34"/>
       <c r="E180" s="35"/>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="51"/>
       <c r="B181" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C181" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D181" s="22">
         <v>1.5</v>
       </c>
       <c r="E181" s="15">
         <f>C181 * D181</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="51"/>
       <c r="B182" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" s="23">
         <v>1.5</v>
       </c>
       <c r="E182" s="12">
         <f>C182 * D181</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="51"/>
       <c r="B183" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C183" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183" s="25">
         <v>1.5</v>
       </c>
       <c r="E183" s="18">
         <f>C183 * D181</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="51"/>
       <c r="B184" s="11" t="s">
         <v>27</v>
@@ -3700,7 +3697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="31" t="s">
         <v>14</v>
@@ -3711,10 +3708,10 @@
       <c r="D185" s="54"/>
       <c r="E185" s="30">
         <f>SUM(E171,E172,E173,E175,IMPRODUCt,E177,E178,E179,E181,E182,E183,E184)</f>
-        <v>42.17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="44" t="s">
         <v>33</v>
       </c>
@@ -3731,9 +3728,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A188" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>4</v>
@@ -3744,23 +3741,23 @@
       <c r="D188" s="11"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="51"/>
       <c r="B189" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C189" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D189" s="22">
         <v>0.83</v>
       </c>
       <c r="E189" s="15">
         <f>C189 * D189</f>
-        <v>4.1499999999999995</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="51"/>
       <c r="B190" s="16" t="s">
         <v>18</v>
@@ -3776,7 +3773,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="51"/>
       <c r="B191" s="20" t="s">
         <v>6</v>
@@ -3792,7 +3789,7 @@
         <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A192" s="51"/>
       <c r="B192" s="19" t="s">
         <v>8</v>
@@ -3803,23 +3800,23 @@
       <c r="D192" s="32"/>
       <c r="E192" s="33"/>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="51"/>
       <c r="B193" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193" s="22">
         <v>0.5</v>
       </c>
       <c r="E193" s="15">
         <f>C193 * D193</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="51"/>
       <c r="B194" s="11" t="s">
         <v>10</v>
@@ -3835,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="51"/>
       <c r="B195" s="17" t="s">
         <v>11</v>
@@ -3851,23 +3848,23 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="51"/>
       <c r="B196" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D196" s="23">
         <v>0.5</v>
       </c>
       <c r="E196" s="12">
         <f>C196 * D193</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="51"/>
       <c r="B197" s="21" t="s">
         <v>13</v>
@@ -3883,7 +3880,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A198" s="51"/>
       <c r="B198" s="19" t="s">
         <v>21</v>
@@ -3894,23 +3891,23 @@
       <c r="D198" s="34"/>
       <c r="E198" s="35"/>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="51"/>
       <c r="B199" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D199" s="22">
         <v>1.5</v>
       </c>
       <c r="E199" s="15">
         <f>C199 * D199</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="51"/>
       <c r="B200" s="11" t="s">
         <v>22</v>
@@ -3926,7 +3923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="51"/>
       <c r="B201" s="17" t="s">
         <v>23</v>
@@ -3942,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="51"/>
       <c r="B202" s="11" t="s">
         <v>27</v>
@@ -3958,7 +3955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
       <c r="B203" s="31" t="s">
         <v>14</v>
@@ -3969,11 +3966,36 @@
       <c r="D203" s="54"/>
       <c r="E203" s="30">
         <f>SUM(E189,E190,E191,E193,IMPRODUCt,E195,E196,E197,E199,E200,E201,E202)</f>
-        <v>43.5</v>
+        <v>43.67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="A188:A203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A116:A131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A134:A149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="A62:A77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A80:A95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="D9:E9"/>
@@ -3987,31 +4009,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A62:A77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A80:A95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A188:A203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A116:A131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A134:A149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="C167:D167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/QACM_B_ScientificExplanations.xlsx
+++ b/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/QACM_B_ScientificExplanations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meta/Documents/ul-fri-nlp-course-project-parlay/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[Gemini|Outcome Quality Assessment Composed Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60A219-D5D9-BB49-934A-C2062B0BF22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2485924-39C3-2E47-B1F5-4A164F8CE4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -826,12 +826,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,6 +839,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1092,10 +1092,10 @@
       <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1110,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1129,8 +1129,8 @@
       <c r="C3" s="40">
         <v>2.5</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -1142,10 +1142,10 @@
       <c r="C4" s="4">
         <v>0.83</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -1157,10 +1157,10 @@
       <c r="C5" s="4">
         <v>0.83</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
@@ -1172,10 +1172,10 @@
       <c r="C6" s="9">
         <v>0.83</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40" t="s">
@@ -1187,8 +1187,8 @@
       <c r="C7" s="40">
         <v>2.5</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -1200,10 +1200,10 @@
       <c r="C8" s="4">
         <v>0.5</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1215,10 +1215,10 @@
       <c r="C9" s="4">
         <v>0.5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -1230,10 +1230,10 @@
       <c r="C10" s="4">
         <v>0.5</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -1245,10 +1245,10 @@
       <c r="C11" s="4">
         <v>0.5</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -1260,10 +1260,10 @@
       <c r="C12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40" t="s">
@@ -1275,8 +1275,8 @@
       <c r="C13" s="40">
         <v>5</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -1288,10 +1288,10 @@
       <c r="C14" s="4">
         <v>1.5</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -1303,10 +1303,10 @@
       <c r="C15" s="4">
         <v>1.5</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -1318,10 +1318,10 @@
       <c r="C16" s="4">
         <v>1.5</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -1333,10 +1333,10 @@
       <c r="C17" s="9">
         <v>0.5</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1360,20 +1360,20 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -3971,31 +3971,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A188:A203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A116:A131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A134:A149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="A62:A77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A80:A95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="D9:E9"/>
@@ -4009,6 +3984,31 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A62:A77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A80:A95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="A188:A203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A116:A131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A134:A149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="C167:D167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
